--- a/Documents/Work_Plan.xlsx
+++ b/Documents/Work_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E7193F-8404-46C1-B778-0FAB00154E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33B7C7-918A-4DE5-AE2B-B323244FCBF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" xr2:uid="{3DEB8654-665F-4AFE-97EB-C8073E367008}"/>
   </bookViews>
@@ -265,23 +265,23 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,71 +612,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -694,15 +694,15 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -719,15 +719,15 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -744,16 +744,16 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -769,17 +769,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -794,19 +794,19 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -819,12 +819,12 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -832,10 +832,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -844,12 +844,12 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -860,8 +860,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -869,12 +869,12 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -886,20 +886,20 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -912,18 +912,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="1"/>
@@ -939,9 +939,9 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1"/>
@@ -951,18 +951,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Work_Plan.xlsx
+++ b/Documents/Work_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33B7C7-918A-4DE5-AE2B-B323244FCBF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B764D41-CF8D-4641-B909-86D89000855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" xr2:uid="{3DEB8654-665F-4AFE-97EB-C8073E367008}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DEB8654-665F-4AFE-97EB-C8073E367008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Team Setup</t>
   </si>
@@ -115,19 +115,13 @@
   </si>
   <si>
     <t>Current Status</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,29 +256,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Giriş" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{6030C3B3-4E04-4F48-AC3D-BA007F08E594}"/>
   </cellStyles>
@@ -302,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -598,356 +591,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5FDB02-9E0A-49AB-8433-38F64D62A7E6}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
